--- a/Отчет по менеджерам 2024.xlsx
+++ b/Отчет по менеджерам 2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\PycharmProjects\ParseXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1AA8E-F0F1-4EF5-A1F1-3F778B68BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E1A83B-7E8C-46F2-8A29-88EEE21C7ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,694 +43,694 @@
     <t>Новый формат</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Рациональ</t>
+  </si>
+  <si>
+    <t>Счет № Z00000013763 от 20.01.25</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Козлов Сергей Анатольевич</t>
+  </si>
+  <si>
+    <t>Счет № Z00000013764 от 20.01.25</t>
+  </si>
+  <si>
+    <t>Белова</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Шеенков Сергей Борисович</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003714 от 10.01.25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>МАГ Груп</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003715 от 13.01.25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Осипова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003716 от 14.01.25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Микроген</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003717 от 15.01.25</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Гостиница "Волна</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003718 от 16.01.25</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Латникова Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003719 от 21.01.25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Белый парус</t>
+  </si>
+  <si>
+    <t>Счет № Б00000003720 от 22.01.25</t>
+  </si>
+  <si>
+    <t>Бусаргина</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ЗИП</t>
+  </si>
+  <si>
+    <t>Счет № Бус000000001 от 09.01.25</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Авангард</t>
+  </si>
+  <si>
+    <t>Счет № Бус000004562 от 23.01.25</t>
+  </si>
+  <si>
+    <t>Каспарова</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Паритет Поволжья</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006413 от 10.01.25</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006415 от 10.01.25</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Атон М</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006409 от 10.01.25</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006416 от 10.01.25</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006417 от 10.01.25</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006418 от 10.01.25</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006412 от 10.01.25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>АКС ГАРД-НН</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006414 от 10.01.25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ЧОО "Валдай 1</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006419 от 13.01.25</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Транспортная ремонтная компания</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006420 от 13.01.25</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Восток-1</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006411 от 14.01.25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ПерсоналРесурс</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006421 от 14.01.25</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ТИГР-НН</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006422 от 14.01.25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Парк-Отель "Кулибин</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006423 от 15.01.25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Недвижимость-НН</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006424 от 15.01.25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Бугровские мельницы</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006425 от 15.01.25</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006427 от 16.01.25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006428 от 16.01.25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>ЛЕГИОН</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006429 от 16.01.25</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006430 от 16.01.25</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Меридиан</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006432 от 20.01.25</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Бармино</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006433 от 20.01.25</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006434 от 23.01.25</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Счет № Кас000006435 от 23.01.25</t>
+  </si>
+  <si>
+    <t>Коровкина</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Сити-Центр</t>
+  </si>
+  <si>
+    <t>Счет № К00000003554 от 09.01.25</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Счет № К00000003555 от 09.01.25</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Счет № К00000003556 от 09.01.25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>ЦЕНТР ЛОГИСТИЧЕСКОГО СОПРОВОЖДЕНИЯ</t>
+  </si>
+  <si>
+    <t>Счет № К00000003557 от 10.01.25</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Корпоративная Лига Олимп</t>
+  </si>
+  <si>
+    <t>Счет № К00000003558 от 14.01.25</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Коклева Светлана Владимировна</t>
+  </si>
+  <si>
+    <t>Счет № К00000003560 от 22.01.25</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>ГЛОБАЛ МЕДИА ЕВРАЗИЯ</t>
+  </si>
+  <si>
+    <t>Счет № К00000003562 от 22.01.25</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>ПРЕМИУМ КЛИНИНГ</t>
+  </si>
+  <si>
+    <t>Счет № К00000003564 от 23.01.25</t>
+  </si>
+  <si>
+    <t>Кочкина</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Ярмолюк Наталия Борисовна</t>
+  </si>
+  <si>
+    <t>Счет № КОЧ000002520 от 09.01.25</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Деликатесы Урала</t>
+  </si>
+  <si>
+    <t>Счет № КОЧ000002522 от 14.01.25</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Илланта</t>
+  </si>
+  <si>
+    <t>Счет № КОЧ000002521 от 15.01.25</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Техноджет</t>
+  </si>
+  <si>
+    <t>Счет № КОЧ000002523 от 16.01.25</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Ростпласт</t>
+  </si>
+  <si>
+    <t>Счет № КОЧ000002525 от 20.01.25</t>
+  </si>
+  <si>
+    <t>Матвеева</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Санаторий им. ВЦСПС</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023376 от 10.01.25</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Безопасность-Нижний</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023377 от 13.01.25</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Маринс Парк Отель Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023378 от 15.01.25</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>НИЖЕГОРОДСКИЙ КОНДИТЕР</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023379 от 16.01.25</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Пресс-стрит</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023380 от 22.01.25</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>ТРЕЙДИНГ-ПРЕСС</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023381 от 23.01.25</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Счет № ОМ0000023382 от 23.01.25</t>
+  </si>
+  <si>
+    <t>Нестерова</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>СТИГМА-НН</t>
+  </si>
+  <si>
+    <t>Счет № Н00000006715 от 10.01.25</t>
+  </si>
+  <si>
+    <t>Перцева</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>ПОМЦ ФМБА России     .</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005011 от 09.01.25</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>НПП СОТЕКС .</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005012 от 09.01.25</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Торговый дом "Народный"</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005008 от 09.01.25</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>ПКФ-МЕТИЗ .</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005015 от 15.01.25</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Ваше хозяйство .</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005016 от 15.01.25</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>МИР ИНСТРУМЕНТА</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005017 от 16.01.25</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>МЕШКИ</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005019 от 20.01.25</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Глионни</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000004981 от 20.01.25</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Триумф  НН</t>
+  </si>
+  <si>
+    <t>Счет № Ю00000005014 от 22.01.25</t>
+  </si>
+  <si>
+    <t>Полушкина</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Технология чистоты</t>
+  </si>
+  <si>
+    <t>Счет № П00000006137 от 10.01.25</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Пансионат Южный</t>
+  </si>
+  <si>
+    <t>Счет № П00000006138 от 15.01.25</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Альт</t>
+  </si>
+  <si>
+    <t>Счет № П00000006139 от 21.01.25</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>НИКА СПРИНГ ЦЕНТР</t>
+  </si>
+  <si>
+    <t>Счет № П00000006140 от 22.01.25</t>
+  </si>
+  <si>
+    <t>Смирнов</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Луидор-Сервис</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007421 от 13.01.25</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>БЦР-Авто Плюс Сервис</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007422 от 13.01.25</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>БЦР-Авто Плюс</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007423 от 13.01.25</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Феникс</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007426 от 14.01.25</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Линкор</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007427 от 14.01.25</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Ореада</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007425 от 17.01.25</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Торговый дом Луидор</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007428 от 20.01.25</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Федосеева С.Ю.</t>
+  </si>
+  <si>
+    <t>Счет № СВ0000007434 от 23.01.25</t>
+  </si>
+  <si>
     <t>Счет № Z00000013762 от 10.01.25</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Рациональ</t>
-  </si>
-  <si>
-    <t>Счет № Z00000013763 от 20.01.25</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Козлов Сергей Анатольевич</t>
-  </si>
-  <si>
-    <t>Счет № Z00000013764 от 20.01.25</t>
-  </si>
-  <si>
-    <t>Белова</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Шеенков Сергей Борисович</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003714 от 10.01.25</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>МАГ Груп</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003715 от 13.01.25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Осипова Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003716 от 14.01.25</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Микроген</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003717 от 15.01.25</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Гостиница "Волна</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003718 от 16.01.25</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Латникова Оксана Владимировна</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003719 от 21.01.25</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Белый парус</t>
-  </si>
-  <si>
-    <t>Счет № Б00000003720 от 22.01.25</t>
-  </si>
-  <si>
-    <t>Бусаргина</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>ЗИП</t>
-  </si>
-  <si>
-    <t>Счет № Бус000000001 от 09.01.25</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Авангард</t>
-  </si>
-  <si>
-    <t>Счет № Бус000004562 от 23.01.25</t>
-  </si>
-  <si>
-    <t>Каспарова</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Паритет Поволжья</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006413 от 10.01.25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Макс</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006415 от 10.01.25</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Атон М</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006409 от 10.01.25</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006416 от 10.01.25</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006417 от 10.01.25</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006418 от 10.01.25</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006412 от 10.01.25</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>АКС ГАРД-НН</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006414 от 10.01.25</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ЧОО "Валдай 1</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006419 от 13.01.25</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Транспортная ремонтная компания</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006420 от 13.01.25</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Восток-1</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006411 от 14.01.25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ПерсоналРесурс</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006421 от 14.01.25</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ТИГР-НН</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006422 от 14.01.25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Парк-Отель "Кулибин</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006423 от 15.01.25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Недвижимость-НН</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006424 от 15.01.25</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Бугровские мельницы</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006425 от 15.01.25</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006427 от 16.01.25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006428 от 16.01.25</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>ЛЕГИОН</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006429 от 16.01.25</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006430 от 16.01.25</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Меридиан</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006432 от 20.01.25</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Бармино</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006433 от 20.01.25</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006434 от 23.01.25</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Счет № Кас000006435 от 23.01.25</t>
-  </si>
-  <si>
-    <t>Коровкина</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Сити-Центр</t>
-  </si>
-  <si>
-    <t>Счет № К00000003554 от 09.01.25</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Счет № К00000003555 от 09.01.25</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Счет № К00000003556 от 09.01.25</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>ЦЕНТР ЛОГИСТИЧЕСКОГО СОПРОВОЖДЕНИЯ</t>
-  </si>
-  <si>
-    <t>Счет № К00000003557 от 10.01.25</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Корпоративная Лига Олимп</t>
-  </si>
-  <si>
-    <t>Счет № К00000003558 от 14.01.25</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Коклева Светлана Владимировна</t>
-  </si>
-  <si>
-    <t>Счет № К00000003560 от 22.01.25</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>ГЛОБАЛ МЕДИА ЕВРАЗИЯ</t>
-  </si>
-  <si>
-    <t>Счет № К00000003562 от 22.01.25</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>ПРЕМИУМ КЛИНИНГ</t>
-  </si>
-  <si>
-    <t>Счет № К00000003564 от 23.01.25</t>
-  </si>
-  <si>
-    <t>Кочкина</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Ярмолюк Наталия Борисовна</t>
-  </si>
-  <si>
-    <t>Счет № КОЧ000002520 от 09.01.25</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Деликатесы Урала</t>
-  </si>
-  <si>
-    <t>Счет № КОЧ000002522 от 14.01.25</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Илланта</t>
-  </si>
-  <si>
-    <t>Счет № КОЧ000002521 от 15.01.25</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Техноджет</t>
-  </si>
-  <si>
-    <t>Счет № КОЧ000002523 от 16.01.25</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Ростпласт</t>
-  </si>
-  <si>
-    <t>Счет № КОЧ000002525 от 20.01.25</t>
-  </si>
-  <si>
-    <t>Матвеева</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Санаторий им. ВЦСПС</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023376 от 10.01.25</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Безопасность-Нижний</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023377 от 13.01.25</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Маринс Парк Отель Нижний Новгород</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023378 от 15.01.25</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>НИЖЕГОРОДСКИЙ КОНДИТЕР</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023379 от 16.01.25</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Пресс-стрит</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023380 от 22.01.25</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>ТРЕЙДИНГ-ПРЕСС</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023381 от 23.01.25</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Счет № ОМ0000023382 от 23.01.25</t>
-  </si>
-  <si>
-    <t>Нестерова</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>СТИГМА-НН</t>
-  </si>
-  <si>
-    <t>Счет № Н00000006715 от 10.01.25</t>
-  </si>
-  <si>
-    <t>Перцева</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>ПОМЦ ФМБА России     .</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005011 от 09.01.25</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>НПП СОТЕКС .</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005012 от 09.01.25</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Торговый дом "Народный"</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005008 от 09.01.25</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>ПКФ-МЕТИЗ .</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005015 от 15.01.25</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Ваше хозяйство .</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005016 от 15.01.25</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>МИР ИНСТРУМЕНТА</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005017 от 16.01.25</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>МЕШКИ</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005019 от 20.01.25</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Глионни</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000004981 от 20.01.25</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Триумф  НН</t>
-  </si>
-  <si>
-    <t>Счет № Ю00000005014 от 22.01.25</t>
-  </si>
-  <si>
-    <t>Полушкина</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Технология чистоты</t>
-  </si>
-  <si>
-    <t>Счет № П00000006137 от 10.01.25</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Пансионат Южный</t>
-  </si>
-  <si>
-    <t>Счет № П00000006138 от 15.01.25</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Альт</t>
-  </si>
-  <si>
-    <t>Счет № П00000006139 от 21.01.25</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>НИКА СПРИНГ ЦЕНТР</t>
-  </si>
-  <si>
-    <t>Счет № П00000006140 от 22.01.25</t>
-  </si>
-  <si>
-    <t>Смирнов</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Луидор-Сервис</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007421 от 13.01.25</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>БЦР-Авто Плюс Сервис</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007422 от 13.01.25</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>БЦР-Авто Плюс</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007423 от 13.01.25</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Феникс</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007426 от 14.01.25</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Линкор</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007427 от 14.01.25</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Ореада</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007425 от 17.01.25</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Торговый дом Луидор</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007428 от 20.01.25</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Федосеева С.Ю.</t>
-  </si>
-  <si>
-    <t>Счет № СВ0000007434 от 23.01.25</t>
   </si>
 </sst>
 </file>
@@ -1289,924 +1289,924 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
